--- a/_data/cc/temporal/Cantidad.xlsx
+++ b/_data/cc/temporal/Cantidad.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\BASE DE DATOS SENASIR_v2\ABRIL\CC\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\MAYO\CC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7200" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="BD_CC_B_UTI" sheetId="7" r:id="rId1"/>
@@ -447,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +512,11 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1156,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,6 +1253,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1780,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q416"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1875,7 +1881,7 @@
       </c>
       <c r="I2" s="47">
         <f>+'CC - Planilla Disgregado'!G14</f>
-        <v>0</v>
+        <v>128789</v>
       </c>
       <c r="J2" s="47">
         <f>+'CC - Planilla Disgregado'!H14</f>
@@ -1941,7 +1947,7 @@
       </c>
       <c r="I3" s="47">
         <f>+'CC - Planilla Disgregado'!G13</f>
-        <v>0</v>
+        <v>25948</v>
       </c>
       <c r="J3" s="47">
         <f>+'CC - Planilla Disgregado'!H13</f>
@@ -2007,7 +2013,7 @@
       </c>
       <c r="I4" s="47">
         <f>+'CC - Planilla Disgregado'!G17</f>
-        <v>0</v>
+        <v>5639</v>
       </c>
       <c r="J4" s="47">
         <f>+'CC - Planilla Disgregado'!H17</f>
@@ -2073,7 +2079,7 @@
       </c>
       <c r="I5" s="47">
         <f>+'CC - Planilla Disgregado'!G16</f>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="J5" s="47">
         <f>+'CC - Planilla Disgregado'!H16</f>
@@ -2139,7 +2145,7 @@
       </c>
       <c r="I6" s="47">
         <f>+'CC - Planilla Disgregado'!G27</f>
-        <v>0</v>
+        <v>2264</v>
       </c>
       <c r="J6" s="47">
         <f>+'CC - Planilla Disgregado'!H27</f>
@@ -2205,7 +2211,7 @@
       </c>
       <c r="I7" s="47">
         <f>+'CC - Planilla Disgregado'!G28</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J7" s="47">
         <f>+'CC - Planilla Disgregado'!H28</f>
@@ -2271,7 +2277,7 @@
       </c>
       <c r="I8" s="47">
         <f>+'CC - Planilla Disgregado'!G30</f>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="J8" s="47">
         <f>+'CC - Planilla Disgregado'!H30</f>
@@ -2337,7 +2343,7 @@
       </c>
       <c r="I9" s="47">
         <f>+'CC - Planilla Disgregado'!G31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="47">
         <f>+'CC - Planilla Disgregado'!H31</f>
@@ -2403,7 +2409,7 @@
       </c>
       <c r="I10" s="47">
         <f>+'CC - Planilla Disgregado'!G34</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J10" s="47">
         <f>+'CC - Planilla Disgregado'!H34</f>
@@ -2469,7 +2475,7 @@
       </c>
       <c r="I11" s="47">
         <f>+'CC - Planilla Disgregado'!G35</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J11" s="47">
         <f>+'CC - Planilla Disgregado'!H35</f>
@@ -2535,7 +2541,7 @@
       </c>
       <c r="I12" s="47">
         <f>+'CC - Planilla Disgregado'!G37</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J12" s="47">
         <f>+'CC - Planilla Disgregado'!H37</f>
@@ -2667,7 +2673,7 @@
       </c>
       <c r="I14" s="47">
         <f>+'CC - Tit - DH'!G22</f>
-        <v>0</v>
+        <v>39167</v>
       </c>
       <c r="J14" s="47">
         <f>+'CC - Tit - DH'!H22</f>
@@ -2733,7 +2739,7 @@
       </c>
       <c r="I15" s="47">
         <f>+'CC - Tit - DH'!G23</f>
-        <v>0</v>
+        <v>95261</v>
       </c>
       <c r="J15" s="47">
         <f>+'CC - Tit - DH'!H23</f>
@@ -2799,7 +2805,7 @@
       </c>
       <c r="I16" s="47">
         <f>+'CC - Tit - DH'!G25</f>
-        <v>0</v>
+        <v>23333</v>
       </c>
       <c r="J16" s="47">
         <f>+'CC - Tit - DH'!H25</f>
@@ -2865,7 +2871,7 @@
       </c>
       <c r="I17" s="47">
         <f>+'CC - Tit - DH'!G26</f>
-        <v>0</v>
+        <v>3307</v>
       </c>
       <c r="J17" s="47">
         <f>+'CC - Tit - DH'!H26</f>
@@ -2931,7 +2937,7 @@
       </c>
       <c r="I18" s="47">
         <f>+'CC - Tipo de CC'!G13</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J18" s="47">
         <f>+'CC - Tipo de CC'!H13</f>
@@ -2997,7 +3003,7 @@
       </c>
       <c r="I19" s="47">
         <f>+'CC - Tipo de CC'!G14</f>
-        <v>0</v>
+        <v>64804</v>
       </c>
       <c r="J19" s="47">
         <f>+'CC - Tipo de CC'!H14</f>
@@ -3063,7 +3069,7 @@
       </c>
       <c r="I20" s="47">
         <f>+'CC - Tipo de CC'!G16</f>
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="J20" s="47">
         <f>+'CC - Tipo de CC'!H16</f>
@@ -3129,7 +3135,7 @@
       </c>
       <c r="I21" s="47">
         <f>+'CC - Tipo de CC'!G17</f>
-        <v>0</v>
+        <v>95937</v>
       </c>
       <c r="J21" s="47">
         <f>+'CC - Tipo de CC'!H17</f>
@@ -3195,7 +3201,7 @@
       </c>
       <c r="I22" s="47">
         <f>+'SR - Clase de Renta'!F14</f>
-        <v>0</v>
+        <v>23035</v>
       </c>
       <c r="J22" s="47">
         <f>+'SR - Clase de Renta'!G14</f>
@@ -3261,7 +3267,7 @@
       </c>
       <c r="I23" s="47">
         <f>+'SR - Clase de Renta'!F15</f>
-        <v>0</v>
+        <v>2877</v>
       </c>
       <c r="J23" s="47">
         <f>+'SR - Clase de Renta'!G15</f>
@@ -3327,7 +3333,7 @@
       </c>
       <c r="I24" s="47">
         <f>+'SR - Clase de Renta'!F16</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J24" s="47">
         <f>+'SR - Clase de Renta'!G16</f>
@@ -3393,7 +3399,7 @@
       </c>
       <c r="I25" s="47">
         <f>+'SR - Clase de Renta'!F17</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J25" s="47">
         <f>+'SR - Clase de Renta'!G17</f>
@@ -3459,7 +3465,7 @@
       </c>
       <c r="I26" s="47">
         <f>+'SR - Clase de Renta'!F18</f>
-        <v>0</v>
+        <v>128789</v>
       </c>
       <c r="J26" s="47">
         <f>+'SR - Clase de Renta'!G18</f>
@@ -3525,7 +3531,7 @@
       </c>
       <c r="I27" s="47">
         <f>+'SR - Clase de Renta'!F21</f>
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="J27" s="47">
         <f>+'SR - Clase de Renta'!G21</f>
@@ -3591,7 +3597,7 @@
       </c>
       <c r="I28" s="47">
         <f>+'SR - Clase de Renta'!F22</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="J28" s="47">
         <f>+'SR - Clase de Renta'!G22</f>
@@ -3789,7 +3795,7 @@
       </c>
       <c r="I31" s="47">
         <f>+'SR - Clase de Renta'!F25</f>
-        <v>0</v>
+        <v>5639</v>
       </c>
       <c r="J31" s="47">
         <f>+'SR - Clase de Renta'!G25</f>
@@ -3855,7 +3861,7 @@
       </c>
       <c r="I32" s="47">
         <f>+'SR - Clase de Renta'!F35</f>
-        <v>0</v>
+        <v>68.66</v>
       </c>
       <c r="J32" s="47">
         <f>+'SR - Clase de Renta'!G35</f>
@@ -3921,7 +3927,7 @@
       </c>
       <c r="I33" s="47">
         <f>+'SR - Clase de Renta'!F36</f>
-        <v>0</v>
+        <v>20.61</v>
       </c>
       <c r="J33" s="47">
         <f>+'SR - Clase de Renta'!G36</f>
@@ -3987,7 +3993,7 @@
       </c>
       <c r="I34" s="47">
         <f>+'SR - Clase de Renta'!F37</f>
-        <v>0</v>
+        <v>89.37</v>
       </c>
       <c r="J34" s="47">
         <f>+'SR - Clase de Renta'!G37</f>
@@ -4053,7 +4059,7 @@
       </c>
       <c r="I35" s="47">
         <f>+'SR - Clase de Renta'!F38</f>
-        <v>0</v>
+        <v>90.78</v>
       </c>
       <c r="J35" s="47">
         <f>+'SR - Clase de Renta'!G38</f>
@@ -4119,7 +4125,7 @@
       </c>
       <c r="I36" s="47">
         <f>+'SR - Clase de Renta'!F39</f>
-        <v>0</v>
+        <v>68.77</v>
       </c>
       <c r="J36" s="47">
         <f>+'SR - Clase de Renta'!G39</f>
@@ -4185,7 +4191,7 @@
       </c>
       <c r="I37" s="47">
         <f>+'SR - Clase de Renta'!F41</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J37" s="47">
         <f>+'SR - Clase de Renta'!G41</f>
@@ -4251,7 +4257,7 @@
       </c>
       <c r="I38" s="47">
         <f>+'SR - Clase de Renta'!F42</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J38" s="47">
         <f>+'SR - Clase de Renta'!G42</f>
@@ -4317,7 +4323,7 @@
       </c>
       <c r="I39" s="47">
         <f>+'SR - Clase de Renta'!F43</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J39" s="47">
         <f>+'SR - Clase de Renta'!G43</f>
@@ -4383,7 +4389,7 @@
       </c>
       <c r="I40" s="47">
         <f>+'SR - Clase de Renta'!F44</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J40" s="47">
         <f>+'SR - Clase de Renta'!G44</f>
@@ -4449,7 +4455,7 @@
       </c>
       <c r="I41" s="47">
         <f>+'SR - Clase de Renta'!F45</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J41" s="47">
         <f>+'SR - Clase de Renta'!G45</f>
@@ -4515,7 +4521,7 @@
       </c>
       <c r="I42" s="47">
         <f>+'SR - Clase de Renta'!F47</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J42" s="47">
         <f>+'SR - Clase de Renta'!G47</f>
@@ -4647,7 +4653,7 @@
       </c>
       <c r="I44" s="47">
         <f>+'SR - Clase de Renta'!F49</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J44" s="47">
         <f>+'SR - Clase de Renta'!G49</f>
@@ -4713,7 +4719,7 @@
       </c>
       <c r="I45" s="47">
         <f>+'SR - Clase de Renta'!F50</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J45" s="47">
         <f>+'SR - Clase de Renta'!G50</f>
@@ -4779,7 +4785,7 @@
       </c>
       <c r="I46" s="47">
         <f>+'SR - Clase de Renta'!F51</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J46" s="47">
         <f>+'SR - Clase de Renta'!G51</f>
@@ -4845,7 +4851,7 @@
       </c>
       <c r="I47" s="47">
         <f>+'SR - Sector'!F13</f>
-        <v>0</v>
+        <v>14931</v>
       </c>
       <c r="J47" s="47">
         <f>+'SR - Sector'!G13</f>
@@ -4911,7 +4917,7 @@
       </c>
       <c r="I48" s="47">
         <f>+'SR - Sector'!F14</f>
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="J48" s="47">
         <f>+'SR - Sector'!G14</f>
@@ -4977,7 +4983,7 @@
       </c>
       <c r="I49" s="47">
         <f>+'SR - Sector'!F15</f>
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="J49" s="47">
         <f>+'SR - Sector'!G15</f>
@@ -5043,7 +5049,7 @@
       </c>
       <c r="I50" s="47">
         <f>+'SR - Sector'!F16</f>
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="J50" s="47">
         <f>+'SR - Sector'!G16</f>
@@ -5109,7 +5115,7 @@
       </c>
       <c r="I51" s="47">
         <f>+'SR - Sector'!F17</f>
-        <v>0</v>
+        <v>3331</v>
       </c>
       <c r="J51" s="47">
         <f>+'SR - Sector'!G17</f>
@@ -5175,7 +5181,7 @@
       </c>
       <c r="I52" s="47">
         <f>+'SR - Sector'!F18</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J52" s="47">
         <f>+'SR - Sector'!G18</f>
@@ -5241,7 +5247,7 @@
       </c>
       <c r="I53" s="47">
         <f>+'SR - Sector'!F19</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="J53" s="47">
         <f>+'SR - Sector'!G19</f>
@@ -5307,7 +5313,7 @@
       </c>
       <c r="I54" s="47">
         <f>+'SR - Sector'!F20</f>
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="J54" s="47">
         <f>+'SR - Sector'!G20</f>
@@ -5373,7 +5379,7 @@
       </c>
       <c r="I55" s="47">
         <f>+'SR - Sector'!F21</f>
-        <v>0</v>
+        <v>3914</v>
       </c>
       <c r="J55" s="47">
         <f>+'SR - Sector'!G21</f>
@@ -5439,7 +5445,7 @@
       </c>
       <c r="I56" s="47">
         <f>+'SR - Sector'!F22</f>
-        <v>0</v>
+        <v>6394</v>
       </c>
       <c r="J56" s="47">
         <f>+'SR - Sector'!G22</f>
@@ -5505,7 +5511,7 @@
       </c>
       <c r="I57" s="47">
         <f>+'SR - Sector'!F23</f>
-        <v>0</v>
+        <v>3104</v>
       </c>
       <c r="J57" s="47">
         <f>+'SR - Sector'!G23</f>
@@ -5571,7 +5577,7 @@
       </c>
       <c r="I58" s="47">
         <f>+'SR - Sector'!F24</f>
-        <v>0</v>
+        <v>15063</v>
       </c>
       <c r="J58" s="47">
         <f>+'SR - Sector'!G24</f>
@@ -5637,7 +5643,7 @@
       </c>
       <c r="I59" s="47">
         <f>+'SR - Sector'!F25</f>
-        <v>0</v>
+        <v>6116</v>
       </c>
       <c r="J59" s="47">
         <f>+'SR - Sector'!G25</f>
@@ -5703,7 +5709,7 @@
       </c>
       <c r="I60" s="47">
         <f>+'SR - Sector'!F26</f>
-        <v>0</v>
+        <v>2221</v>
       </c>
       <c r="J60" s="47">
         <f>+'SR - Sector'!G26</f>
@@ -5769,7 +5775,7 @@
       </c>
       <c r="I61" s="47">
         <f>+'SR - Sector'!F27</f>
-        <v>0</v>
+        <v>2879</v>
       </c>
       <c r="J61" s="47">
         <f>+'SR - Sector'!G27</f>
@@ -5835,7 +5841,7 @@
       </c>
       <c r="I62" s="47">
         <f>+'SR - Sector'!F28</f>
-        <v>0</v>
+        <v>4408</v>
       </c>
       <c r="J62" s="47">
         <f>+'SR - Sector'!G28</f>
@@ -5901,7 +5907,7 @@
       </c>
       <c r="I63" s="47">
         <f>+'SR - Sector'!F29</f>
-        <v>0</v>
+        <v>3771</v>
       </c>
       <c r="J63" s="47">
         <f>+'SR - Sector'!G29</f>
@@ -5967,7 +5973,7 @@
       </c>
       <c r="I64" s="47">
         <f>+'SR - Sector'!F30</f>
-        <v>0</v>
+        <v>7483</v>
       </c>
       <c r="J64" s="47">
         <f>+'SR - Sector'!G30</f>
@@ -6033,7 +6039,7 @@
       </c>
       <c r="I65" s="47">
         <f>+'SR - Sector'!F31</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="J65" s="47">
         <f>+'SR - Sector'!G31</f>
@@ -6099,7 +6105,7 @@
       </c>
       <c r="I66" s="47">
         <f>+'SR - Sector'!F32</f>
-        <v>0</v>
+        <v>16499</v>
       </c>
       <c r="J66" s="47">
         <f>+'SR - Sector'!G32</f>
@@ -6165,7 +6171,7 @@
       </c>
       <c r="I67" s="47">
         <f>+'SR - Sector'!F33</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J67" s="47">
         <f>+'SR - Sector'!G33</f>
@@ -6231,7 +6237,7 @@
       </c>
       <c r="I68" s="47">
         <f>+'SR - Sector'!F34</f>
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="J68" s="47">
         <f>+'SR - Sector'!G34</f>
@@ -6297,7 +6303,7 @@
       </c>
       <c r="I69" s="47">
         <f>+'SR - Sector'!F35</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J69" s="47">
         <f>+'SR - Sector'!G35</f>
@@ -6363,7 +6369,7 @@
       </c>
       <c r="I70" s="47">
         <f>+'SR - Sector'!F36</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J70" s="47">
         <f>+'SR - Sector'!G36</f>
@@ -6429,7 +6435,7 @@
       </c>
       <c r="I71" s="47">
         <f>+'SR - Sector'!F37</f>
-        <v>0</v>
+        <v>1617</v>
       </c>
       <c r="J71" s="47">
         <f>+'SR - Sector'!G37</f>
@@ -6495,7 +6501,7 @@
       </c>
       <c r="I72" s="47">
         <f>+'SR - Sector'!F38</f>
-        <v>0</v>
+        <v>30821</v>
       </c>
       <c r="J72" s="47">
         <f>+'SR - Sector'!G38</f>
@@ -6561,7 +6567,7 @@
       </c>
       <c r="I73" s="47">
         <f>+'SR - Sector'!F39</f>
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="J73" s="47">
         <f>+'SR - Sector'!G39</f>
@@ -6627,7 +6633,7 @@
       </c>
       <c r="I74" s="47">
         <f>+'SR - Sector'!F40</f>
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="J74" s="47">
         <f>+'SR - Sector'!G40</f>
@@ -6693,7 +6699,7 @@
       </c>
       <c r="I75" s="47">
         <f>+'SR - Sector'!F41</f>
-        <v>0</v>
+        <v>6492</v>
       </c>
       <c r="J75" s="47">
         <f>+'SR - Sector'!G41</f>
@@ -6759,7 +6765,7 @@
       </c>
       <c r="I76" s="47">
         <f>+'SR - Sector'!F42</f>
-        <v>0</v>
+        <v>6055</v>
       </c>
       <c r="J76" s="47">
         <f>+'SR - Sector'!G42</f>
@@ -6825,7 +6831,7 @@
       </c>
       <c r="I77" s="47">
         <f>+'SR - Sector'!F43</f>
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="J77" s="47">
         <f>+'SR - Sector'!G43</f>
@@ -6891,7 +6897,7 @@
       </c>
       <c r="I78" s="47">
         <f>+'SR - Sector'!F44</f>
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="J78" s="47">
         <f>+'SR - Sector'!G44</f>
@@ -6957,7 +6963,7 @@
       </c>
       <c r="I79" s="47">
         <f>+'SR - Sector'!F45</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J79" s="47">
         <f>+'SR - Sector'!G45</f>
@@ -7023,7 +7029,7 @@
       </c>
       <c r="I80" s="47">
         <f>+'SR - Sector'!F46</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J80" s="47">
         <f>+'SR - Sector'!G46</f>
@@ -7089,7 +7095,7 @@
       </c>
       <c r="I81" s="47">
         <f>+'SR - Sector'!F47</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J81" s="47">
         <f>+'SR - Sector'!G47</f>
@@ -7155,7 +7161,7 @@
       </c>
       <c r="I82" s="47">
         <f>+'SR - Sector'!F48</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J82" s="47">
         <f>+'SR - Sector'!G48</f>
@@ -7221,7 +7227,7 @@
       </c>
       <c r="I83" s="47">
         <f>+'SR - Sector'!F49</f>
-        <v>0</v>
+        <v>3435</v>
       </c>
       <c r="J83" s="47">
         <f>+'SR - Sector'!G49</f>
@@ -7287,7 +7293,7 @@
       </c>
       <c r="I84" s="47">
         <f>+'SR - Sector'!F50</f>
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="J84" s="47">
         <f>+'SR - Sector'!G50</f>
@@ -7353,7 +7359,7 @@
       </c>
       <c r="I85" s="47">
         <f>+'SR - Sector'!F51</f>
-        <v>0</v>
+        <v>3267</v>
       </c>
       <c r="J85" s="47">
         <f>+'SR - Sector'!G51</f>
@@ -7419,7 +7425,7 @@
       </c>
       <c r="I86" s="47">
         <f>+'SR - Regional'!F13</f>
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="J86" s="47">
         <f>+'SR - Regional'!G13</f>
@@ -7485,7 +7491,7 @@
       </c>
       <c r="I87" s="47">
         <f>+'SR - Regional'!F14</f>
-        <v>0</v>
+        <v>30595</v>
       </c>
       <c r="J87" s="47">
         <f>+'SR - Regional'!G14</f>
@@ -7551,7 +7557,7 @@
       </c>
       <c r="I88" s="47">
         <f>+'SR - Regional'!F15</f>
-        <v>0</v>
+        <v>63148</v>
       </c>
       <c r="J88" s="47">
         <f>+'SR - Regional'!G15</f>
@@ -7617,7 +7623,7 @@
       </c>
       <c r="I89" s="47">
         <f>+'SR - Regional'!F16</f>
-        <v>0</v>
+        <v>10646</v>
       </c>
       <c r="J89" s="47">
         <f>+'SR - Regional'!G16</f>
@@ -7683,7 +7689,7 @@
       </c>
       <c r="I90" s="47">
         <f>+'SR - Regional'!F17</f>
-        <v>0</v>
+        <v>8836</v>
       </c>
       <c r="J90" s="47">
         <f>+'SR - Regional'!G17</f>
@@ -7749,7 +7755,7 @@
       </c>
       <c r="I91" s="47">
         <f>+'SR - Regional'!F19</f>
-        <v>0</v>
+        <v>30356</v>
       </c>
       <c r="J91" s="47">
         <f>+'SR - Regional'!G19</f>
@@ -7815,7 +7821,7 @@
       </c>
       <c r="I92" s="47">
         <f>+'SR - Regional'!F20</f>
-        <v>0</v>
+        <v>7092</v>
       </c>
       <c r="J92" s="47">
         <f>+'SR - Regional'!G20</f>
@@ -7881,7 +7887,7 @@
       </c>
       <c r="I93" s="47">
         <f>+'SR - Regional'!F21</f>
-        <v>0</v>
+        <v>7305</v>
       </c>
       <c r="J93" s="47">
         <f>+'SR - Regional'!G21</f>
@@ -7947,7 +7953,7 @@
       </c>
       <c r="I94" s="47">
         <f>+'SR - Regional'!F18+'SR - Regional'!F22</f>
-        <v>0</v>
+        <v>2346</v>
       </c>
       <c r="J94" s="47">
         <f>+'SR - Regional'!G18+'SR - Regional'!G22</f>
@@ -8957,8 +8963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:T1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8970,44 +8976,44 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
+      <c r="A6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -9035,45 +9041,45 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -9084,21 +9090,21 @@
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="61">
         <v>2024</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9170,7 +9176,9 @@
       <c r="F13" s="1">
         <v>25845</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>25948</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -9181,7 +9189,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="12">
         <f t="shared" ref="P13:P14" si="0">SUM(C13:O13)</f>
-        <v>101728</v>
+        <v>127676</v>
       </c>
       <c r="R13" s="1"/>
     </row>
@@ -9202,7 +9210,9 @@
       <c r="F14" s="1">
         <v>128304</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>128789</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -9213,15 +9223,15 @@
       <c r="O14" s="1"/>
       <c r="P14" s="12">
         <f t="shared" si="0"/>
-        <v>510344</v>
+        <v>639133</v>
       </c>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="13">
         <f t="shared" ref="C15:P15" si="1">SUM(C13:C14)</f>
         <v>152080</v>
@@ -9240,7 +9250,7 @@
       </c>
       <c r="G15" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>154737</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="1"/>
@@ -9276,7 +9286,7 @@
       </c>
       <c r="P15" s="12">
         <f t="shared" si="1"/>
-        <v>612072</v>
+        <v>766809</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -9302,7 +9312,9 @@
       <c r="F16" s="1">
         <v>688</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>692</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -9313,7 +9325,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="12">
         <f t="shared" ref="P16:P17" si="2">SUM(C16:O16)</f>
-        <v>2693</v>
+        <v>3385</v>
       </c>
       <c r="R16" s="1"/>
     </row>
@@ -9334,7 +9346,9 @@
       <c r="F17" s="1">
         <v>5639</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>5639</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -9345,15 +9359,15 @@
       <c r="O17" s="1"/>
       <c r="P17" s="12">
         <f t="shared" si="2"/>
-        <v>22267</v>
+        <v>27906</v>
       </c>
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="13">
         <f t="shared" ref="C18:P18" si="3">SUM(C16:C17)</f>
         <v>6029</v>
@@ -9372,7 +9386,7 @@
       </c>
       <c r="G18" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6331</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="3"/>
@@ -9408,7 +9422,7 @@
       </c>
       <c r="P18" s="12">
         <f t="shared" si="3"/>
-        <v>24960</v>
+        <v>31291</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -9416,10 +9430,10 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="66"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="14">
         <f t="shared" ref="C19:P19" si="4">C15+C18</f>
         <v>158109</v>
@@ -9438,7 +9452,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>161068</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="4"/>
@@ -9474,7 +9488,7 @@
       </c>
       <c r="P19" s="14">
         <f t="shared" si="4"/>
-        <v>637032</v>
+        <v>798100</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -9517,62 +9531,62 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="61">
         <v>2024</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9621,32 +9635,32 @@
       <c r="O25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="68" t="s">
+      <c r="P25" s="69" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="69"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="70"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -9664,7 +9678,9 @@
       <c r="F27" s="1">
         <v>2485</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>2264</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -9675,11 +9691,11 @@
       <c r="O27" s="1"/>
       <c r="P27" s="12">
         <f t="shared" ref="P27:P28" si="5">SUM(C27:O27)</f>
-        <v>10556</v>
+        <v>12820</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="11" t="s">
         <v>21</v>
       </c>
@@ -9695,7 +9711,9 @@
       <c r="F28" s="1">
         <v>529</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>460</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -9706,14 +9724,14 @@
       <c r="O28" s="1"/>
       <c r="P28" s="12">
         <f t="shared" si="5"/>
-        <v>1808</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="54"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="13">
         <f t="shared" ref="C29:M29" si="6">SUM(C27:C28)</f>
         <v>2315</v>
@@ -9732,7 +9750,7 @@
       </c>
       <c r="G29" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2724</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="6"/>
@@ -9765,7 +9783,7 @@
       </c>
       <c r="P29" s="12">
         <f>+P27+P28</f>
-        <v>12364</v>
+        <v>15088</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -9773,7 +9791,7 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="64" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -9791,7 +9809,9 @@
       <c r="F30" s="1">
         <v>590</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>550</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -9802,11 +9822,11 @@
       <c r="O30" s="1"/>
       <c r="P30" s="12">
         <f t="shared" ref="P30:P31" si="8">SUM(C30:O30)</f>
-        <v>1680</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="11" t="s">
         <v>21</v>
       </c>
@@ -9822,7 +9842,9 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -9833,14 +9855,14 @@
       <c r="O31" s="1"/>
       <c r="P31" s="12">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="54"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="13">
         <f t="shared" ref="C32:M32" si="9">SUM(C30:C31)</f>
         <v>298</v>
@@ -9859,7 +9881,7 @@
       </c>
       <c r="G32" s="13">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="9"/>
@@ -9892,7 +9914,7 @@
       </c>
       <c r="P32" s="12">
         <f t="shared" si="10"/>
-        <v>1686</v>
+        <v>2239</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -9900,27 +9922,27 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="73"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="74"/>
       <c r="P33" s="20"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -9938,7 +9960,9 @@
       <c r="F34" s="1">
         <v>8</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>8</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -9949,11 +9973,11 @@
       <c r="O34" s="1"/>
       <c r="P34" s="12">
         <f t="shared" ref="P34:P35" si="11">SUM(C34:O34)</f>
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="11" t="s">
         <v>21</v>
       </c>
@@ -9969,7 +9993,9 @@
       <c r="F35" s="1">
         <v>14</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>14</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -9980,14 +10006,14 @@
       <c r="O35" s="1"/>
       <c r="P35" s="12">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="13">
         <f t="shared" ref="C36:M36" si="12">SUM(C34:C35)</f>
         <v>5</v>
@@ -10006,7 +10032,7 @@
       </c>
       <c r="G36" s="13">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="12"/>
@@ -10039,7 +10065,7 @@
       </c>
       <c r="P36" s="12">
         <f>SUM(P34:P35)</f>
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -10047,7 +10073,7 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="64" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -10065,7 +10091,9 @@
       <c r="F37" s="1">
         <v>8</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -10076,11 +10104,11 @@
       <c r="O37" s="1"/>
       <c r="P37" s="12">
         <f t="shared" ref="P37:P38" si="14">SUM(C37:O37)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="11" t="s">
         <v>21</v>
       </c>
@@ -10096,7 +10124,9 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -10111,10 +10141,10 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13">
         <f t="shared" ref="C39:M39" si="15">SUM(C37:C38)</f>
         <v>6</v>
@@ -10133,7 +10163,7 @@
       </c>
       <c r="G39" s="13">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="15"/>
@@ -10166,7 +10196,7 @@
       </c>
       <c r="P39" s="12">
         <f t="shared" si="16"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -10174,10 +10204,10 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="66"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="14">
         <f t="shared" ref="C40:P40" si="17">C29+C32+C36+C39</f>
         <v>2624</v>
@@ -10196,7 +10226,7 @@
       </c>
       <c r="G40" s="14">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3309</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" si="17"/>
@@ -10232,7 +10262,7 @@
       </c>
       <c r="P40" s="21">
         <f t="shared" si="17"/>
-        <v>14691</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11234,8 +11264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:S1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11248,45 +11278,45 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
+      <c r="A6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
       <c r="Q6" s="44"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
       <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -11307,71 +11337,71 @@
       <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
       <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
       <c r="Q10" s="44"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="60">
+      <c r="B11" s="76"/>
+      <c r="C11" s="61">
         <v>2024</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="75"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
@@ -11417,10 +11447,10 @@
       <c r="Q12" s="44"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="49">
         <v>26188</v>
       </c>
@@ -11433,7 +11463,9 @@
       <c r="F13" s="1">
         <v>26533</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>26640</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -11444,15 +11476,15 @@
       <c r="O13" s="1"/>
       <c r="P13" s="12">
         <f t="shared" ref="P13:P14" si="0">SUM(C13:O13)</f>
-        <v>104421</v>
+        <v>131061</v>
       </c>
       <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="49">
         <v>131921</v>
       </c>
@@ -11465,7 +11497,9 @@
       <c r="F14" s="1">
         <v>133943</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>134428</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -11476,15 +11510,15 @@
       <c r="O14" s="1"/>
       <c r="P14" s="12">
         <f t="shared" si="0"/>
-        <v>532611</v>
+        <v>667039</v>
       </c>
       <c r="Q14" s="44"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="14">
         <f t="shared" ref="C15:P15" si="1">SUM(C13:C14)</f>
         <v>158109</v>
@@ -11503,7 +11537,7 @@
       </c>
       <c r="G15" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>161068</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="1"/>
@@ -11539,7 +11573,7 @@
       </c>
       <c r="P15" s="21">
         <f t="shared" si="1"/>
-        <v>637032</v>
+        <v>798100</v>
       </c>
       <c r="Q15" s="44"/>
     </row>
@@ -11560,63 +11594,63 @@
       <c r="N16" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="58"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="81">
         <v>2024</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="58"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -11669,7 +11703,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -11687,7 +11721,9 @@
       <c r="F22" s="1">
         <v>39048</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="51">
+        <v>39167</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -11698,11 +11734,11 @@
       <c r="O22" s="1"/>
       <c r="P22" s="12">
         <f t="shared" ref="P22:P27" si="2">SUM(C22:O22)</f>
-        <v>155003</v>
+        <v>194170</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="11" t="s">
         <v>35</v>
       </c>
@@ -11718,7 +11754,9 @@
       <c r="F23" s="1">
         <v>94895</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="51">
+        <v>95261</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -11729,14 +11767,14 @@
       <c r="O23" s="1"/>
       <c r="P23" s="12">
         <f t="shared" si="2"/>
-        <v>377608</v>
+        <v>472869</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="13">
         <f t="shared" ref="C24:O24" si="3">SUM(C22:C23)</f>
         <v>131921</v>
@@ -11755,7 +11793,7 @@
       </c>
       <c r="G24" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>134428</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="3"/>
@@ -11791,12 +11829,12 @@
       </c>
       <c r="P24" s="12">
         <f t="shared" si="2"/>
-        <v>532611</v>
+        <v>667039</v>
       </c>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -11814,7 +11852,9 @@
       <c r="F25" s="1">
         <v>23249</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>23333</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -11825,11 +11865,11 @@
       <c r="O25" s="1"/>
       <c r="P25" s="12">
         <f t="shared" si="2"/>
-        <v>91674</v>
+        <v>115007</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
@@ -11845,7 +11885,9 @@
       <c r="F26" s="1">
         <v>3284</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>3307</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -11856,14 +11898,14 @@
       <c r="O26" s="1"/>
       <c r="P26" s="12">
         <f t="shared" si="2"/>
-        <v>12747</v>
+        <v>16054</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="13">
         <f t="shared" ref="C27:O27" si="4">SUM(C25:C26)</f>
         <v>26188</v>
@@ -11882,7 +11924,7 @@
       </c>
       <c r="G27" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>26640</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="4"/>
@@ -11918,7 +11960,7 @@
       </c>
       <c r="P27" s="12">
         <f t="shared" si="2"/>
-        <v>104421</v>
+        <v>131061</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -11947,7 +11989,7 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>161068</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="5"/>
@@ -11983,7 +12025,7 @@
       </c>
       <c r="P28" s="14">
         <f t="shared" si="5"/>
-        <v>637032</v>
+        <v>798100</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13039,7 +13081,7 @@
   <dimension ref="A6:S1000"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13051,44 +13093,44 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
+      <c r="A6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -13108,62 +13150,62 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="61">
         <v>2024</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13235,7 +13277,9 @@
       <c r="F13" s="1">
         <v>53</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>62</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -13246,7 +13290,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="12">
         <f t="shared" ref="P13:P18" si="0">SUM(C13:O13)</f>
-        <v>571</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13266,7 +13310,9 @@
       <c r="F14" s="1">
         <v>64585</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>64804</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -13277,14 +13323,14 @@
       <c r="O14" s="1"/>
       <c r="P14" s="12">
         <f t="shared" si="0"/>
-        <v>256347</v>
+        <v>321151</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="13">
         <f t="shared" ref="C15:O15" si="1">SUM(C13:C14)</f>
         <v>63812</v>
@@ -13303,7 +13349,7 @@
       </c>
       <c r="G15" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64866</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="1"/>
@@ -13339,7 +13385,7 @@
       </c>
       <c r="P15" s="12">
         <f t="shared" si="0"/>
-        <v>256918</v>
+        <v>321784</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -13364,7 +13410,9 @@
       <c r="F16" s="1">
         <v>251</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>265</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -13375,7 +13423,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="12">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13395,7 +13443,9 @@
       <c r="F17" s="1">
         <v>95587</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>95937</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -13406,14 +13456,14 @@
       <c r="O17" s="1"/>
       <c r="P17" s="12">
         <f t="shared" si="0"/>
-        <v>378392</v>
+        <v>474329</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="13">
         <f t="shared" ref="C18:O18" si="2">SUM(C16:C17)</f>
         <v>94297</v>
@@ -13432,7 +13482,7 @@
       </c>
       <c r="G18" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>96202</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="2"/>
@@ -13468,7 +13518,7 @@
       </c>
       <c r="P18" s="12">
         <f t="shared" si="0"/>
-        <v>380114</v>
+        <v>476316</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -13497,7 +13547,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>161068</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="3"/>
@@ -13533,7 +13583,7 @@
       </c>
       <c r="P19" s="14">
         <f t="shared" si="3"/>
-        <v>637032</v>
+        <v>798100</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -14612,8 +14662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:S1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14634,42 +14684,42 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="A6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -14688,59 +14738,59 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="85">
         <v>2023</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -14786,28 +14836,28 @@
       <c r="N12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="69" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="69"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
@@ -14825,7 +14875,9 @@
       <c r="E14" s="1">
         <v>22965</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>23035</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -14836,7 +14888,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="12">
         <f t="shared" ref="O14:O19" si="0">SUM(B14:N14)</f>
-        <v>90753</v>
+        <v>113788</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14855,7 +14907,9 @@
       <c r="E15" s="1">
         <v>2843</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>2877</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -14866,7 +14920,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="12">
         <f t="shared" si="0"/>
-        <v>10815</v>
+        <v>13692</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14885,7 +14939,9 @@
       <c r="E16" s="1">
         <v>27</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>27</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -14896,7 +14952,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="12">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14915,7 +14971,9 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>9</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -14926,7 +14984,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="12">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -14945,7 +15003,9 @@
       <c r="E18" s="1">
         <v>128304</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>128789</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -14956,7 +15016,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="12">
         <f t="shared" si="0"/>
-        <v>510344</v>
+        <v>639133</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -14981,7 +15041,7 @@
       </c>
       <c r="F19" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>154737</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="1"/>
@@ -15017,7 +15077,7 @@
       </c>
       <c r="O19" s="12">
         <f t="shared" si="0"/>
-        <v>612072</v>
+        <v>766809</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -15025,22 +15085,22 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="58"/>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15059,7 +15119,9 @@
       <c r="E21" s="1">
         <v>510</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>515</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -15070,7 +15132,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="32">
         <f t="shared" ref="O21:O25" si="2">SUM(B21:N21)</f>
-        <v>2003</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15089,7 +15151,9 @@
       <c r="E22" s="1">
         <v>178</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>177</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -15100,7 +15164,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="32">
         <f t="shared" si="2"/>
-        <v>690</v>
+        <v>867</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15119,7 +15183,9 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -15149,7 +15215,9 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -15179,7 +15247,9 @@
       <c r="E25" s="1">
         <v>5639</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>5639</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -15190,7 +15260,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="32">
         <f t="shared" si="2"/>
-        <v>22267</v>
+        <v>27906</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15215,7 +15285,7 @@
       </c>
       <c r="F26" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6331</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="3"/>
@@ -15251,7 +15321,7 @@
       </c>
       <c r="O26" s="13">
         <f t="shared" si="3"/>
-        <v>24960</v>
+        <v>31291</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -15280,7 +15350,7 @@
       </c>
       <c r="F27" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>161068</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="4"/>
@@ -15316,7 +15386,7 @@
       </c>
       <c r="O27" s="14">
         <f t="shared" si="4"/>
-        <v>637032</v>
+        <v>798100</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15337,59 +15407,59 @@
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="58"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="85">
         <v>2024</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="88"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="89"/>
       <c r="O32" s="34"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15433,28 +15503,28 @@
       <c r="N33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="68" t="s">
+      <c r="O33" s="69" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="69"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="70"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
@@ -15472,7 +15542,9 @@
       <c r="E35" s="36">
         <v>68.64</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="36">
+        <v>68.66</v>
+      </c>
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
@@ -15483,7 +15555,7 @@
       <c r="N35" s="36"/>
       <c r="O35" s="37">
         <f t="shared" ref="O35:O39" si="5">SUM(B35:N35)</f>
-        <v>274.2</v>
+        <v>342.86</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15502,7 +15574,9 @@
       <c r="E36" s="36">
         <v>20.53</v>
       </c>
-      <c r="F36" s="36"/>
+      <c r="F36" s="36">
+        <v>20.61</v>
+      </c>
       <c r="G36" s="36"/>
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
@@ -15513,7 +15587,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="37">
         <f t="shared" si="5"/>
-        <v>81.960000000000008</v>
+        <v>102.57000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15532,7 +15606,9 @@
       <c r="E37" s="36">
         <v>89.07</v>
       </c>
-      <c r="F37" s="36"/>
+      <c r="F37" s="36">
+        <v>89.37</v>
+      </c>
       <c r="G37" s="36"/>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
@@ -15543,7 +15619,7 @@
       <c r="N37" s="36"/>
       <c r="O37" s="37">
         <f t="shared" si="5"/>
-        <v>357.81</v>
+        <v>447.18</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15562,7 +15638,9 @@
       <c r="E38" s="36">
         <v>92.4</v>
       </c>
-      <c r="F38" s="36"/>
+      <c r="F38" s="36">
+        <v>90.78</v>
+      </c>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
@@ -15573,7 +15651,7 @@
       <c r="N38" s="36"/>
       <c r="O38" s="37">
         <f t="shared" si="5"/>
-        <v>363.84000000000003</v>
+        <v>454.62</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15592,7 +15670,9 @@
       <c r="E39" s="36">
         <v>68.77</v>
       </c>
-      <c r="F39" s="36"/>
+      <c r="F39" s="36">
+        <v>68.77</v>
+      </c>
       <c r="G39" s="36"/>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
@@ -15603,26 +15683,26 @@
       <c r="N39" s="36"/>
       <c r="O39" s="37">
         <f t="shared" si="5"/>
-        <v>274.78000000000003</v>
+        <v>343.55</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="73"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="74"/>
       <c r="O40" s="20"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15641,7 +15721,9 @@
       <c r="E41" s="1">
         <v>103</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1">
+        <v>103</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -15652,7 +15734,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="38">
         <f t="shared" ref="O41:O45" si="6">SUM(B41:N41)</f>
-        <v>412</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15671,7 +15753,9 @@
       <c r="E42" s="1">
         <v>70</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1">
+        <v>70</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -15682,7 +15766,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="38">
         <f t="shared" si="6"/>
-        <v>280</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15701,7 +15785,9 @@
       <c r="E43" s="1">
         <v>95</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1">
+        <v>95</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -15712,7 +15798,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="38">
         <f t="shared" si="6"/>
-        <v>383</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15731,7 +15817,9 @@
       <c r="E44" s="1">
         <v>107</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1">
+        <v>98</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -15742,7 +15830,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="38">
         <f t="shared" si="6"/>
-        <v>401</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15761,7 +15849,9 @@
       <c r="E45" s="1">
         <v>103</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <v>103</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -15772,26 +15862,26 @@
       <c r="N45" s="1"/>
       <c r="O45" s="38">
         <f t="shared" si="6"/>
-        <v>412</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="83"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="84"/>
       <c r="O46" s="39"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15810,7 +15900,9 @@
       <c r="E47" s="1">
         <v>21</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1">
+        <v>21</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -15821,7 +15913,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="38">
         <f t="shared" ref="O47:O51" si="7">SUM(B47:N47)</f>
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15840,7 +15932,9 @@
       <c r="E48" s="1">
         <v>0</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -15870,7 +15964,9 @@
       <c r="E49" s="1">
         <v>82</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1">
+        <v>82</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -15881,7 +15977,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="38">
         <f t="shared" si="7"/>
-        <v>328</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15900,7 +15996,9 @@
       <c r="E50" s="1">
         <v>85</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1">
+        <v>85</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -15911,7 +16009,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="38">
         <f t="shared" si="7"/>
-        <v>338</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15930,7 +16028,9 @@
       <c r="E51" s="1">
         <v>50</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1">
+        <v>50</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -15941,7 +16041,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="38">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16937,8 +17037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16949,42 +17049,42 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="A6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -17003,59 +17103,59 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="85">
         <v>2024</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -17121,7 +17221,9 @@
       <c r="E13" s="1">
         <v>14866</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>14931</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -17132,7 +17234,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="12">
         <f t="shared" ref="O13:O51" si="0">SUM(B13:N13)</f>
-        <v>59106</v>
+        <v>74037</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -17151,7 +17253,9 @@
       <c r="E14" s="1">
         <v>687</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>686</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -17162,7 +17266,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="12">
         <f t="shared" si="0"/>
-        <v>2744</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -17181,7 +17285,9 @@
       <c r="E15" s="1">
         <v>1172</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>1168</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -17192,7 +17298,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="12">
         <f t="shared" si="0"/>
-        <v>4629</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -17211,7 +17317,9 @@
       <c r="E16" s="1">
         <v>895</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>897</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -17222,7 +17330,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="12">
         <f t="shared" si="0"/>
-        <v>3531</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -17241,7 +17349,9 @@
       <c r="E17" s="1">
         <v>3301</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>3331</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -17252,7 +17362,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="12">
         <f t="shared" si="0"/>
-        <v>13088</v>
+        <v>16419</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -17271,7 +17381,9 @@
       <c r="E18" s="1">
         <v>56</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>56</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -17282,7 +17394,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="12">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -17301,7 +17413,9 @@
       <c r="E19" s="1">
         <v>88</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>89</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -17312,7 +17426,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="12">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -17331,7 +17445,9 @@
       <c r="E20" s="1">
         <v>203</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>205</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -17342,7 +17458,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="12">
         <f t="shared" si="0"/>
-        <v>804</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17361,7 +17477,9 @@
       <c r="E21" s="1">
         <v>3896</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>3914</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -17372,7 +17490,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="12">
         <f t="shared" si="0"/>
-        <v>15493</v>
+        <v>19407</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17391,7 +17509,9 @@
       <c r="E22" s="1">
         <v>6359</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>6394</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -17402,7 +17522,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="12">
         <f t="shared" si="0"/>
-        <v>25245</v>
+        <v>31639</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17421,7 +17541,9 @@
       <c r="E23" s="1">
         <v>3092</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>3104</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -17432,7 +17554,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="12">
         <f t="shared" si="0"/>
-        <v>12258</v>
+        <v>15362</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17451,7 +17573,9 @@
       <c r="E24" s="1">
         <v>14986</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>15063</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -17462,7 +17586,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="12">
         <f t="shared" si="0"/>
-        <v>59563</v>
+        <v>74626</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17481,7 +17605,9 @@
       <c r="E25" s="1">
         <v>6121</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>6116</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -17492,7 +17618,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="12">
         <f t="shared" si="0"/>
-        <v>24418</v>
+        <v>30534</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17511,7 +17637,9 @@
       <c r="E26" s="1">
         <v>2211</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <v>2221</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -17522,7 +17650,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="12">
         <f t="shared" si="0"/>
-        <v>8784</v>
+        <v>11005</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17541,7 +17669,9 @@
       <c r="E27" s="1">
         <v>2869</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1">
+        <v>2879</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -17552,7 +17682,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="12">
         <f t="shared" si="0"/>
-        <v>11491</v>
+        <v>14370</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17571,7 +17701,9 @@
       <c r="E28" s="1">
         <v>4398</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1">
+        <v>4408</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -17582,7 +17714,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="12">
         <f t="shared" si="0"/>
-        <v>17516</v>
+        <v>21924</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17601,7 +17733,9 @@
       <c r="E29" s="1">
         <v>3772</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <v>3771</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -17612,7 +17746,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="12">
         <f t="shared" si="0"/>
-        <v>14915</v>
+        <v>18686</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17631,7 +17765,9 @@
       <c r="E30" s="1">
         <v>7476</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <v>7483</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -17642,7 +17778,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="12">
         <f t="shared" si="0"/>
-        <v>29518</v>
+        <v>37001</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17661,7 +17797,9 @@
       <c r="E31" s="1">
         <v>807</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1">
+        <v>804</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -17672,7 +17810,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="12">
         <f t="shared" si="0"/>
-        <v>3218</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17691,7 +17829,9 @@
       <c r="E32" s="1">
         <v>16420</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1">
+        <v>16499</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -17702,7 +17842,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="12">
         <f t="shared" si="0"/>
-        <v>65336</v>
+        <v>81835</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17721,7 +17861,9 @@
       <c r="E33" s="1">
         <v>61</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1">
+        <v>60</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -17732,7 +17874,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="12">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17751,7 +17893,9 @@
       <c r="E34" s="1">
         <v>2992</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1">
+        <v>3001</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -17762,7 +17906,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="12">
         <f t="shared" si="0"/>
-        <v>11820</v>
+        <v>14821</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17781,7 +17925,9 @@
       <c r="E35" s="1">
         <v>76</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <v>74</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -17792,7 +17938,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="12">
         <f t="shared" si="0"/>
-        <v>302</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17811,7 +17957,9 @@
       <c r="E36" s="1">
         <v>106</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1">
+        <v>105</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -17822,7 +17970,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="12">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17841,7 +17989,9 @@
       <c r="E37" s="1">
         <v>1608</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1">
+        <v>1617</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -17852,7 +18002,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="12">
         <f t="shared" si="0"/>
-        <v>6393</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17871,7 +18021,9 @@
       <c r="E38" s="1">
         <v>30671</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1">
+        <v>30821</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -17882,7 +18034,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="12">
         <f t="shared" si="0"/>
-        <v>121377</v>
+        <v>152198</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17901,7 +18053,9 @@
       <c r="E39" s="1">
         <v>293</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1">
+        <v>293</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -17912,7 +18066,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="12">
         <f t="shared" si="0"/>
-        <v>1169</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17931,7 +18085,9 @@
       <c r="E40" s="1">
         <v>1104</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1">
+        <v>1103</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -17942,7 +18098,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="12">
         <f t="shared" si="0"/>
-        <v>4391</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17961,7 +18117,9 @@
       <c r="E41" s="1">
         <v>6475</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1">
+        <v>6492</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -17972,7 +18130,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="12">
         <f t="shared" si="0"/>
-        <v>25800</v>
+        <v>32292</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17991,7 +18149,9 @@
       <c r="E42" s="1">
         <v>6045</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1">
+        <v>6055</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -18002,7 +18162,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="12">
         <f t="shared" si="0"/>
-        <v>24043</v>
+        <v>30098</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18021,7 +18181,9 @@
       <c r="E43" s="1">
         <v>844</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1">
+        <v>853</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -18032,7 +18194,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="12">
         <f t="shared" si="0"/>
-        <v>3360</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18051,7 +18213,9 @@
       <c r="E44" s="1">
         <v>8859</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1">
+        <v>8900</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -18062,7 +18226,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="12">
         <f t="shared" si="0"/>
-        <v>35048</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18081,7 +18245,9 @@
       <c r="E45" s="1">
         <v>34</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <v>35</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -18092,7 +18258,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="12">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18111,7 +18277,9 @@
       <c r="E46" s="1">
         <v>108</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1">
+        <v>109</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -18122,7 +18290,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="12">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18141,7 +18309,9 @@
       <c r="E47" s="1">
         <v>115</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1">
+        <v>115</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -18152,7 +18322,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="12">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18171,7 +18341,9 @@
       <c r="E48" s="1">
         <v>164</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1">
+        <v>163</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -18182,7 +18354,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="12">
         <f t="shared" si="0"/>
-        <v>638</v>
+        <v>801</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18201,7 +18373,9 @@
       <c r="E49" s="1">
         <v>3420</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1">
+        <v>3435</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -18212,7 +18386,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="12">
         <f t="shared" si="0"/>
-        <v>13554</v>
+        <v>16989</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18231,7 +18405,9 @@
       <c r="E50" s="1">
         <v>550</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1">
+        <v>551</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -18242,7 +18418,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="12">
         <f t="shared" si="0"/>
-        <v>2190</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18261,7 +18437,9 @@
       <c r="E51" s="1">
         <v>3276</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1">
+        <v>3267</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -18272,7 +18450,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="12">
         <f t="shared" si="0"/>
-        <v>13021</v>
+        <v>16288</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18297,7 +18475,7 @@
       </c>
       <c r="F52" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>161068</v>
       </c>
       <c r="G52" s="21">
         <f t="shared" si="1"/>
@@ -18333,7 +18511,7 @@
       </c>
       <c r="O52" s="21">
         <f t="shared" si="1"/>
-        <v>637032</v>
+        <v>798100</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19317,8 +19495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19329,42 +19507,42 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="A6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -19383,59 +19561,59 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="85">
         <v>2024</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -19501,7 +19679,9 @@
       <c r="E13" s="1">
         <v>736</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>744</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -19512,7 +19692,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="12">
         <f t="shared" ref="O13:O22" si="0">SUM(B13:N13)</f>
-        <v>2905</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -19531,7 +19711,9 @@
       <c r="E14" s="1">
         <v>30480</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>30595</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -19542,7 +19724,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="12">
         <f t="shared" si="0"/>
-        <v>121182</v>
+        <v>151777</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -19561,7 +19743,9 @@
       <c r="E15" s="1">
         <v>62957</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>63148</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -19572,7 +19756,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="12">
         <f t="shared" si="0"/>
-        <v>249425</v>
+        <v>312573</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -19591,7 +19775,9 @@
       <c r="E16" s="1">
         <v>10624</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>10646</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -19602,7 +19788,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="12">
         <f t="shared" si="0"/>
-        <v>42287</v>
+        <v>52933</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -19621,7 +19807,9 @@
       <c r="E17" s="1">
         <v>8796</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>8836</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -19632,7 +19820,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="12">
         <f t="shared" si="0"/>
-        <v>34908</v>
+        <v>43744</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -19651,7 +19839,9 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -19681,7 +19871,9 @@
       <c r="E19" s="1">
         <v>30222</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>30356</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -19692,7 +19884,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="12">
         <f t="shared" si="0"/>
-        <v>120132</v>
+        <v>150488</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -19711,7 +19903,9 @@
       <c r="E20" s="1">
         <v>7058</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>7092</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -19722,7 +19916,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="12">
         <f t="shared" si="0"/>
-        <v>28121</v>
+        <v>35213</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19741,7 +19935,9 @@
       <c r="E21" s="1">
         <v>7264</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>7305</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -19752,7 +19948,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="12">
         <f t="shared" si="0"/>
-        <v>28866</v>
+        <v>36171</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19771,7 +19967,9 @@
       <c r="E22" s="1">
         <v>2338</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>2346</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -19782,7 +19980,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="12">
         <f t="shared" si="0"/>
-        <v>9197</v>
+        <v>11543</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19807,7 +20005,7 @@
       </c>
       <c r="F23" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>161068</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="1"/>
@@ -19843,7 +20041,7 @@
       </c>
       <c r="O23" s="21">
         <f t="shared" si="1"/>
-        <v>637032</v>
+        <v>798100</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
